--- a/toydata.xlsx
+++ b/toydata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universitas Trunojoyo Madura\#Kuliah\#SKRIPSI\dokumen\program\sv-k-modes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EAC13C-DB99-42A8-96CD-84317126A1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E49570-A165-4060-8B78-ED9F40D507C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1440" windowWidth="8535" windowHeight="5580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>ekonomi</t>
   </si>
@@ -422,91 +422,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>